--- a/data/trans_dic/P34B01_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34B01_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5536842194282361</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6261613352949591</v>
+        <v>0.6261613352949592</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.5632461982109882</v>
@@ -655,7 +655,7 @@
         <v>0.5558035808685818</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6336816352973204</v>
+        <v>0.6336816352973205</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5085876345943773</v>
@@ -664,7 +664,7 @@
         <v>0.5547423581657565</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6300348714066322</v>
+        <v>0.6300348714066321</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4163648452104638</v>
+        <v>0.4180939433795281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5146009383554276</v>
+        <v>0.5187512693961424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5813408952516277</v>
+        <v>0.5868093735641992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5224661959717056</v>
+        <v>0.5204693663806275</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5198245708421201</v>
+        <v>0.5204932313504099</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6060053519170738</v>
+        <v>0.6031917705357648</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4794628647608273</v>
+        <v>0.4829322082556082</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5265836050792239</v>
+        <v>0.5272407845696595</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.605403940902112</v>
+        <v>0.6062097404075418</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4927649953792024</v>
+        <v>0.4944239055397561</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5924079904265299</v>
+        <v>0.5936204081032717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6597608061618918</v>
+        <v>0.6654271615509473</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5968093760658755</v>
+        <v>0.6014954567238553</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5954041390654148</v>
+        <v>0.5946532991252612</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6623266944781272</v>
+        <v>0.6617946998234392</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5341189331661726</v>
+        <v>0.5351511844462422</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5822469904282961</v>
+        <v>0.5829794681968741</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6542441058657182</v>
+        <v>0.6539524697625936</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.4862920031814361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6363261765725662</v>
+        <v>0.6363261765725664</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.44354973224455</v>
@@ -764,7 +764,7 @@
         <v>0.4681416683288497</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.643267583057316</v>
+        <v>0.6432675830573158</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.4386251218858226</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3997025071879935</v>
+        <v>0.4028765407804643</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4523219597036892</v>
+        <v>0.4520328352676947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6019874098699887</v>
+        <v>0.6050842290856613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4102180236574996</v>
+        <v>0.4133222673262229</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4392279031983634</v>
+        <v>0.436555497969297</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6184430027214004</v>
+        <v>0.6202546244511838</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.416047915629098</v>
+        <v>0.4155780805415542</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4537809619356935</v>
+        <v>0.4522453018369028</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6194255098906001</v>
+        <v>0.6178037283157229</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4671167365037258</v>
+        <v>0.4681928418710121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5162280595060068</v>
+        <v>0.5170697270461626</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6713436002409554</v>
+        <v>0.669196489469057</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4737356027074373</v>
+        <v>0.4756532986363093</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5010050849874594</v>
+        <v>0.5005140926451863</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6708320335079547</v>
+        <v>0.6703723257044926</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4604021162696562</v>
+        <v>0.4599795342324917</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4993174671154006</v>
+        <v>0.5001987217413553</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6620641624347361</v>
+        <v>0.6602510846082064</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.5291815825990331</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.636746899836808</v>
+        <v>0.6367468998368081</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4507283378149596</v>
+        <v>0.4497400352362793</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5066896651012642</v>
+        <v>0.5069170131913949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6285961121050381</v>
+        <v>0.6287962543534504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5074723213989455</v>
+        <v>0.5110039096224467</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4778545794813135</v>
+        <v>0.4749539012463235</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5744888746440547</v>
+        <v>0.5709653415264767</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4895690939979283</v>
+        <v>0.4905766285370989</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.504384215712541</v>
+        <v>0.5050295280057698</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6102071398541974</v>
+        <v>0.6121269372599615</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5277858096852238</v>
+        <v>0.5270468142006091</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.588964370238343</v>
+        <v>0.5814658650721669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7069558535859226</v>
+        <v>0.7073861980391791</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5807355136056641</v>
+        <v>0.5848934334940092</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5510771769474984</v>
+        <v>0.5477996991363746</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6424365709605434</v>
+        <v>0.6343070631299523</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5425037743535711</v>
+        <v>0.5464676427447061</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5558748908436006</v>
+        <v>0.5554414279626186</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6619314625921077</v>
+        <v>0.6612317570481044</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.5906527993772805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6866041450340167</v>
+        <v>0.6866041450340168</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.4584419017407021</v>
@@ -982,7 +982,7 @@
         <v>0.6012686532765985</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6119589876598988</v>
+        <v>0.6119589876598986</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.4384908580533168</v>
@@ -991,7 +991,7 @@
         <v>0.5962452630033813</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6470143173088576</v>
+        <v>0.6470143173088577</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3831679140058279</v>
+        <v>0.3830348588050395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5590659167209659</v>
+        <v>0.5564555631824167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6501562530022635</v>
+        <v>0.6560195321807493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4278297209085994</v>
+        <v>0.425529955632943</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5689585200845605</v>
+        <v>0.5686275480580038</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.584241760193537</v>
+        <v>0.5826777713350082</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4185093384029127</v>
+        <v>0.4161215800121921</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5750696788123145</v>
+        <v>0.5737584836659224</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6279598041650254</v>
+        <v>0.6264609903604801</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4500545229628919</v>
+        <v>0.4509486163859487</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.621159900093826</v>
+        <v>0.6226955669052829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.71564208905378</v>
+        <v>0.718425744330064</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4928772877517193</v>
+        <v>0.4892225723816113</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6281025137956094</v>
+        <v>0.6326637671786006</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6390263434141318</v>
+        <v>0.6371737927260579</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4639404018267416</v>
+        <v>0.4625245763803518</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6186014737456662</v>
+        <v>0.6195554518176347</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6685364638958098</v>
+        <v>0.6682583820157587</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.5337618597587722</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6237647099923262</v>
+        <v>0.6237647099923264</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4698903478841708</v>
@@ -1100,7 +1100,7 @@
         <v>0.5378014160647645</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6393243907554478</v>
+        <v>0.639324390755448</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4280556035553459</v>
+        <v>0.4271492689329223</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5238847052660197</v>
+        <v>0.523404012320373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6374400398937949</v>
+        <v>0.6379708143317498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4761864461322814</v>
+        <v>0.474988062442779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5169319926089898</v>
+        <v>0.5171707000506428</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6093393542026443</v>
+        <v>0.6112805113001543</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4566768228383484</v>
+        <v>0.4578624177933006</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5258644574518868</v>
+        <v>0.5255009593056424</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6290207339339932</v>
+        <v>0.6276455250946544</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4626216721760857</v>
+        <v>0.4634695588037939</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5584070065620342</v>
+        <v>0.558611519327176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6722979194181645</v>
+        <v>0.6748607006069125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.512062734673709</v>
+        <v>0.5105704702176472</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5514292837989937</v>
+        <v>0.5509438818930049</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6385713874974336</v>
+        <v>0.6365786352349063</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4827371829782903</v>
+        <v>0.4822018116182441</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5490599656309405</v>
+        <v>0.5495162567142472</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6507376301441509</v>
+        <v>0.6501188707279886</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>292412</v>
+        <v>293627</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>347253</v>
+        <v>350053</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>398759</v>
+        <v>402510</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>364185</v>
+        <v>362793</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>349758</v>
+        <v>350208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>441526</v>
+        <v>439476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>670935</v>
+        <v>675790</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>709645</v>
+        <v>710530</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>856352</v>
+        <v>857492</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>346068</v>
+        <v>347233</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>399757</v>
+        <v>400575</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>452550</v>
+        <v>456436</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>416006</v>
+        <v>419272</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>400611</v>
+        <v>400106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>482561</v>
+        <v>482173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>747418</v>
+        <v>748863</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>784659</v>
+        <v>785646</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>925437</v>
+        <v>925024</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>406876</v>
+        <v>410107</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>462468</v>
+        <v>462172</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>626671</v>
+        <v>629894</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>422644</v>
+        <v>425842</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>458076</v>
+        <v>455289</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>659280</v>
+        <v>661211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>852165</v>
+        <v>851203</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>937214</v>
+        <v>934042</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1305151</v>
+        <v>1301734</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>475500</v>
+        <v>476595</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>527808</v>
+        <v>528668</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>698871</v>
+        <v>696636</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>488085</v>
+        <v>490061</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>522505</v>
+        <v>521993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>715128</v>
+        <v>714638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>943013</v>
+        <v>942148</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1031262</v>
+        <v>1033082</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1394992</v>
+        <v>1391172</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>341482</v>
+        <v>340733</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>384857</v>
+        <v>385030</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>503162</v>
+        <v>503322</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>394394</v>
+        <v>397139</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>375121</v>
+        <v>372844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>461964</v>
+        <v>459131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>751389</v>
+        <v>752936</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>779053</v>
+        <v>780050</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>979129</v>
+        <v>982210</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>399863</v>
+        <v>399303</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>447349</v>
+        <v>441654</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>565886</v>
+        <v>566230</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>451333</v>
+        <v>454564</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>432602</v>
+        <v>430029</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>516603</v>
+        <v>510066</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>832633</v>
+        <v>838717</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>858584</v>
+        <v>857914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1062125</v>
+        <v>1061003</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>362799</v>
+        <v>362673</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>524162</v>
+        <v>521714</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>642968</v>
+        <v>648767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>450035</v>
+        <v>447615</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>593867</v>
+        <v>593521</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>652520</v>
+        <v>650774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>836493</v>
+        <v>831720</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1139412</v>
+        <v>1136814</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1322365</v>
+        <v>1319208</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>426131</v>
+        <v>426977</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>582379</v>
+        <v>583819</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>707730</v>
+        <v>710483</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>518458</v>
+        <v>514614</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>655600</v>
+        <v>660361</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>713707</v>
+        <v>711638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>927298</v>
+        <v>924468</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1225664</v>
+        <v>1227554</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1407811</v>
+        <v>1407226</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1465967</v>
+        <v>1462863</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1778248</v>
+        <v>1776616</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2241451</v>
+        <v>2243317</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1693517</v>
+        <v>1689255</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1832287</v>
+        <v>1833133</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2264069</v>
+        <v>2271282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3188118</v>
+        <v>3196395</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3648917</v>
+        <v>3646394</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4549043</v>
+        <v>4539098</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1584346</v>
+        <v>1587249</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1895429</v>
+        <v>1896123</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2364023</v>
+        <v>2373034</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1821108</v>
+        <v>1815800</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1954564</v>
+        <v>1952844</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2372684</v>
+        <v>2365280</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>3370049</v>
+        <v>3366312</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3809868</v>
+        <v>3813034</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4706099</v>
+        <v>4701624</v>
       </c>
     </row>
     <row r="24">
